--- a/AAII_Financials/Quarterly/DSAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DSAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
   <si>
     <t>DSAC</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,34 +665,35 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,8 +709,11 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -737,8 +741,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -766,8 +773,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -795,8 +805,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,8 +821,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -837,8 +851,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,8 +883,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -895,8 +915,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -924,8 +947,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,19 +960,20 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
+      <c r="F17" s="3">
+        <v>0</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -963,8 +990,11 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -972,10 +1002,10 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -992,8 +1022,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,8 +1038,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1014,10 +1048,10 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+        <v>-8400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1034,8 +1068,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1063,8 +1100,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1092,19 +1132,22 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-600</v>
+        <v>3500</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
+        <v>-9100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1121,8 +1164,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1150,8 +1196,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,19 +1228,22 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-600</v>
+        <v>3500</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
+        <v>-9100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1208,19 +1260,22 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-600</v>
+        <v>3500</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
+        <v>-9100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1237,8 +1292,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,8 +1324,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1295,8 +1356,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1388,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,8 +1420,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1362,10 +1432,10 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+        <v>8400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1382,19 +1452,22 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-600</v>
+        <v>3500</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
+        <v>-9100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1411,8 +1484,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,19 +1516,22 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-600</v>
+        <v>3500</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
+        <v>-9100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1469,25 +1548,28 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1503,8 +1585,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,8 +1601,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,37 +1615,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1587,17 +1677,20 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>2000</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1616,8 +1709,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1645,19 +1741,22 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>800</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1674,19 +1773,22 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>800</v>
+      </c>
+      <c r="E46" s="3">
         <v>2800</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+      <c r="F46" s="3">
+        <v>0</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1703,17 +1805,20 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>175100</v>
+      </c>
+      <c r="E47" s="3">
         <v>175000</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1732,8 +1837,11 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1761,8 +1869,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1790,8 +1901,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,8 +1933,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,20 +1965,23 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,8 +1997,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,20 +2029,23 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>175900</v>
+      </c>
+      <c r="E54" s="3">
         <v>177800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1935,8 +2061,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,8 +2077,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,19 +2091,20 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+      <c r="F57" s="3">
+        <v>0</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1990,8 +2121,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2019,20 +2153,23 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2048,20 +2185,23 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>300</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2077,8 +2217,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2106,16 +2249,19 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6100</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
+        <v>23200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>26900</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2135,8 +2281,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,8 +2313,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,8 +2345,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,20 +2377,23 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8100</v>
+        <v>23500</v>
       </c>
       <c r="E66" s="3">
+        <v>28900</v>
+      </c>
+      <c r="F66" s="3">
         <v>300</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2251,8 +2409,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,8 +2425,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2455,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,8 +2487,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2351,8 +2519,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,19 +2551,22 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-600</v>
+        <v>-5600</v>
       </c>
       <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>-9100</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2409,8 +2583,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +2615,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,8 +2647,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,19 +2679,22 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>169700</v>
+        <v>152400</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>148900</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2525,8 +2711,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,25 +2743,28 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2588,19 +2780,22 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-600</v>
+        <v>3500</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
+        <v>-9100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2617,8 +2812,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,8 +2828,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2659,8 +2858,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,8 +2890,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,8 +2922,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +2954,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,8 +2986,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,13 +3018,16 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -2818,23 +3035,26 @@
       <c r="F89" s="3">
         <v>0</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,8 +3066,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2875,8 +3096,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3128,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,8 +3160,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2962,8 +3192,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,8 +3208,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3004,8 +3238,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,8 +3270,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,8 +3302,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,37 +3334,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3149,13 +3398,16 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -3163,19 +3415,22 @@
       <c r="F102" s="3">
         <v>0</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DSAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DSAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="92">
   <si>
     <t>DSAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,41 +665,43 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -712,8 +714,14 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -744,8 +752,14 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -776,8 +790,14 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -808,8 +828,14 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -822,8 +848,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -854,8 +882,14 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -886,8 +920,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -918,8 +958,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -950,8 +996,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -961,25 +1013,27 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+      <c r="H17" s="3">
+        <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -993,8 +1047,14 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1002,16 +1062,16 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+      <c r="H18" s="3">
+        <v>0</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1025,8 +1085,14 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1039,8 +1105,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1048,16 +1116,16 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G20" s="3">
         <v>-8400</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1071,8 +1139,14 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1103,8 +1177,14 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1135,25 +1215,31 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F23" s="3">
         <v>3500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-9100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+      <c r="H23" s="3">
+        <v>0</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1167,8 +1253,14 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1199,8 +1291,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1231,25 +1329,31 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F26" s="3">
         <v>3500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-9100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+      <c r="H26" s="3">
+        <v>0</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1263,25 +1367,31 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F27" s="3">
         <v>3500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-9100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+      <c r="H27" s="3">
+        <v>0</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1295,8 +1405,14 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1327,8 +1443,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1359,8 +1481,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1391,8 +1519,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1423,8 +1557,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1432,16 +1572,16 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="G32" s="3">
         <v>8400</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1455,25 +1595,31 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F33" s="3">
         <v>3500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-9100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+      <c r="H33" s="3">
+        <v>0</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1487,8 +1633,14 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1519,25 +1671,31 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F35" s="3">
         <v>3500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-9100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+      <c r="H35" s="3">
+        <v>0</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1551,31 +1709,37 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1588,8 +1752,14 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1602,8 +1772,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1616,19 +1788,21 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>100</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1642,14 +1816,20 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1680,8 +1860,14 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1689,13 +1875,13 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>400</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1712,8 +1898,14 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1744,25 +1936,31 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1776,25 +1974,31 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>600</v>
+      </c>
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="E46" s="3">
-        <v>2800</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+      <c r="G46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1808,8 +2012,14 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1817,14 +2027,14 @@
         <v>175100</v>
       </c>
       <c r="E47" s="3">
+        <v>175100</v>
+      </c>
+      <c r="F47" s="3">
+        <v>175100</v>
+      </c>
+      <c r="G47" s="3">
         <v>175000</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1840,8 +2050,14 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1872,8 +2088,14 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1904,8 +2126,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1936,8 +2164,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1968,8 +2202,14 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1979,15 +2219,15 @@
       <c r="E52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2000,8 +2240,14 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2032,26 +2278,32 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>175600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>175600</v>
+      </c>
+      <c r="F54" s="3">
         <v>175900</v>
       </c>
-      <c r="E54" s="3">
-        <v>177800</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
+        <v>176200</v>
+      </c>
+      <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2064,8 +2316,14 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2078,8 +2336,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2092,25 +2352,27 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2124,8 +2386,14 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2139,16 +2407,16 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2156,25 +2424,31 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>300</v>
+      </c>
+      <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3">
-        <v>1900</v>
-      </c>
-      <c r="F59" s="3">
-        <v>300</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+      <c r="G59" s="3">
+        <v>200</v>
+      </c>
+      <c r="H59" s="3">
+        <v>200</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2188,26 +2462,32 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F60" s="3">
         <v>200</v>
       </c>
-      <c r="E60" s="3">
-        <v>1900</v>
-      </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
+        <v>400</v>
+      </c>
+      <c r="H60" s="3">
         <v>300</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2220,8 +2500,14 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2252,23 +2538,29 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>19200</v>
+      </c>
+      <c r="F62" s="3">
         <v>23200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>26900</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2284,8 +2576,14 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2316,8 +2614,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2348,8 +2652,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2380,26 +2690,32 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>21200</v>
+      </c>
+      <c r="F66" s="3">
         <v>23500</v>
       </c>
-      <c r="E66" s="3">
-        <v>28900</v>
-      </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
+        <v>27300</v>
+      </c>
+      <c r="H66" s="3">
         <v>300</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2728,14 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2426,8 +2748,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2458,8 +2782,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2490,8 +2820,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2522,8 +2858,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2554,25 +2896,31 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-5600</v>
       </c>
-      <c r="E72" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+      <c r="G72" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="H72" s="3">
+        <v>0</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2586,8 +2934,14 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2618,8 +2972,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2650,8 +3010,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2682,25 +3048,31 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>156900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>154400</v>
+      </c>
+      <c r="F76" s="3">
         <v>152400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>148900</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+      <c r="H76" s="3">
+        <v>0</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2714,8 +3086,14 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2746,31 +3124,37 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2783,25 +3167,31 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F81" s="3">
         <v>3500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-9100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+      <c r="H81" s="3">
+        <v>0</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2815,8 +3205,14 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2829,8 +3225,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2861,8 +3259,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2893,8 +3297,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2925,8 +3335,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2957,8 +3373,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2989,8 +3411,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3021,25 +3449,31 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3047,14 +3481,20 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3067,8 +3507,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3099,8 +3541,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3131,8 +3579,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3163,8 +3617,14 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3195,8 +3655,14 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3209,8 +3675,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3241,8 +3709,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3273,8 +3747,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3305,8 +3785,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3337,20 +3823,26 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3363,14 +3855,20 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3401,8 +3899,14 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3410,16 +3914,16 @@
         <v>100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3427,10 +3931,16 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DSAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DSAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
   <si>
     <t>DSAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,46 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -720,8 +720,11 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -758,8 +761,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -796,8 +802,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,8 +843,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -850,8 +862,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -888,8 +901,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -926,8 +942,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -964,8 +983,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1002,8 +1024,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1015,28 +1040,29 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+      <c r="I17" s="3">
+        <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1053,8 +1079,11 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1062,19 +1091,19 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+      <c r="I18" s="3">
+        <v>0</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1091,8 +1120,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1107,8 +1139,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1116,19 +1149,19 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F20" s="3">
         <v>4000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-8400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1145,8 +1178,11 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1183,8 +1219,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1221,28 +1260,31 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E23" s="3">
         <v>2500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+      <c r="I23" s="3">
+        <v>0</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1259,8 +1301,11 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1297,8 +1342,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1335,28 +1383,31 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E26" s="3">
         <v>2500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>0</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1373,28 +1424,31 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E27" s="3">
         <v>2500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>0</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1411,8 +1465,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1449,8 +1506,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1487,8 +1547,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1525,8 +1588,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1563,8 +1629,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1572,19 +1641,19 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-4000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>8400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1601,28 +1670,31 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E33" s="3">
         <v>2500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1639,8 +1711,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1677,28 +1752,31 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E35" s="3">
         <v>2500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>0</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1715,34 +1793,37 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1758,8 +1839,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1774,8 +1858,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1790,23 +1875,24 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1822,14 +1908,17 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1866,8 +1955,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1881,11 +1973,11 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1904,8 +1996,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1942,28 +2037,31 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1980,28 +2078,31 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1200</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+      <c r="I46" s="3">
+        <v>0</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2018,8 +2119,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2033,11 +2137,11 @@
         <v>175100</v>
       </c>
       <c r="G47" s="3">
+        <v>175100</v>
+      </c>
+      <c r="H47" s="3">
         <v>175000</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2056,8 +2160,11 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2094,8 +2201,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2132,8 +2242,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2170,8 +2283,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2208,8 +2324,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2225,12 +2344,12 @@
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2246,8 +2365,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2284,29 +2406,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>175600</v>
+        <v>176200</v>
       </c>
       <c r="E54" s="3">
         <v>175600</v>
       </c>
       <c r="F54" s="3">
+        <v>175600</v>
+      </c>
+      <c r="G54" s="3">
         <v>175900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>176200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2322,8 +2447,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2338,8 +2466,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2354,28 +2483,29 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+      <c r="I57" s="3">
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2392,8 +2522,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2407,19 +2540,19 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2430,28 +2563,31 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>200</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+      <c r="I59" s="3">
+        <v>200</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2468,29 +2604,32 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E60" s="3">
         <v>3000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2506,8 +2645,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2544,26 +2686,29 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E62" s="3">
         <v>15700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>19200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>23200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>26900</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2727,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2620,8 +2768,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2658,8 +2809,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2696,29 +2850,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E66" s="3">
         <v>18700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>23500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>27300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>300</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,8 +2891,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2750,8 +2910,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2788,8 +2949,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2826,8 +2990,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2864,8 +3031,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2902,28 +3072,31 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-18100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-26100</v>
       </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+      <c r="I72" s="3">
+        <v>0</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2940,8 +3113,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2978,8 +3154,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3016,8 +3195,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3054,28 +3236,31 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>145700</v>
+      </c>
+      <c r="E76" s="3">
         <v>156900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>154400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>152400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>148900</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+      <c r="I76" s="3">
+        <v>0</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3092,8 +3277,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3130,34 +3318,37 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3173,28 +3364,31 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E81" s="3">
         <v>2500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>0</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3211,8 +3405,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3227,8 +3424,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3265,8 +3463,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3303,8 +3504,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3341,8 +3545,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3379,8 +3586,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3417,8 +3627,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3455,28 +3668,31 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>0</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3487,14 +3703,17 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3509,8 +3728,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3547,8 +3767,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3585,8 +3808,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3623,8 +3849,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3661,8 +3890,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3677,8 +3909,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3715,8 +3948,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3753,8 +3989,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3791,8 +4030,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3829,23 +4071,26 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3861,14 +4106,17 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3905,28 +4153,31 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>500</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>0</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3937,10 +4188,13 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>
